--- a/2022/Symphony/January/05.01.2022/MC Bank Statement January-2022.xlsx
+++ b/2022/Symphony/January/05.01.2022/MC Bank Statement January-2022.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="235">
   <si>
     <t>Date</t>
   </si>
@@ -9101,6 +9101,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9117,9 +9120,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33522,8 +33522,8 @@
   </sheetPr>
   <dimension ref="A1:Y219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33792,7 +33792,9 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="249"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
